--- a/model/Auswertung/Tabellenformat/Ergebnis_Qwen7b/results.xlsx
+++ b/model/Auswertung/Tabellenformat/Ergebnis_Qwen7b/results.xlsx
@@ -550,64 +550,64 @@
         <v>1766</v>
       </c>
       <c r="B2" t="n">
-        <v>1555</v>
+        <v>1166</v>
       </c>
       <c r="C2" t="n">
-        <v>211</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4388</v>
+        <v>0.3398</v>
       </c>
       <c r="F2" t="n">
         <v>271</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="H2" t="n">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6642</v>
+        <v>0.321</v>
       </c>
       <c r="M2" t="n">
-        <v>1.417</v>
+        <v>0.2325</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1959</v>
+        <v>0.9423</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2071</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.214</v>
+        <v>0.7232</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2636</v>
+        <v>0.7568</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2046</v>
+        <v>0.8184</v>
       </c>
       <c r="S2" t="n">
-        <v>0.232</v>
+        <v>0.8615</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0525</v>
+        <v>0.8098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0257</v>
+        <v>0.4032</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -620,28 +620,28 @@
         <v>970</v>
       </c>
       <c r="B3" t="n">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="C3" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1227</v>
+        <v>0.1072</v>
       </c>
       <c r="F3" t="n">
         <v>165</v>
       </c>
       <c r="G3" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -650,34 +650,34 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2727</v>
+        <v>0.1879</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2606</v>
+        <v>0.1758</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8061</v>
+        <v>0.8602</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8103</v>
+        <v>0.8649</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9576</v>
+        <v>0.9697</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9634</v>
+        <v>0.9756</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8753</v>
+        <v>0.9117</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8802</v>
+        <v>0.9169</v>
       </c>
       <c r="T3" t="n">
-        <v>0.787</v>
+        <v>0.8369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4291</v>
+        <v>0.5591</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,64 +690,64 @@
         <v>443</v>
       </c>
       <c r="B4" t="n">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2709</v>
+        <v>0.2325</v>
       </c>
       <c r="F4" t="n">
         <v>85</v>
       </c>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3882</v>
+        <v>0.2706</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1882</v>
+        <v>0.0588</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7955</v>
+        <v>0.8605</v>
       </c>
       <c r="O4" t="n">
-        <v>0.875</v>
+        <v>0.961</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8235</v>
+        <v>0.8706</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9211</v>
+        <v>0.9737</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8092</v>
+        <v>0.8655</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8974</v>
+        <v>0.9673</v>
       </c>
       <c r="T4" t="n">
-        <v>0.709</v>
+        <v>0.8091</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2977</v>
+        <v>0.4047</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -760,64 +760,64 @@
         <v>2478</v>
       </c>
       <c r="B5" t="n">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="C5" t="n">
-        <v>2132</v>
+        <v>2097</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8604000000000001</v>
+        <v>0.8462</v>
       </c>
       <c r="F5" t="n">
         <v>335</v>
       </c>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0.803</v>
+        <v>0.7493</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7552</v>
+        <v>0.7254</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8367</v>
+        <v>0.9038</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9011</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2448</v>
+        <v>0.2806</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2515</v>
+        <v>0.284</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3788</v>
+        <v>0.4282</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3933</v>
+        <v>0.4362</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2174</v>
+        <v>0.298</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0009</v>
+        <v>0.0017</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
